--- a/SF_36_Urdu.xlsx
+++ b/SF_36_Urdu.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.0.22\Home$\alice.cade\Documents\R\SCI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88B7AA5-ABF0-4FCC-AB16-14E86EA8141A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706A0EC9-8478-4FB5-BC5F-169FE63ACCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AV$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -89,12 +91,126 @@
   <si>
     <t>Health_Change</t>
   </si>
+  <si>
+    <t>Mean Differences Pre and Post Intervention</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>meanDiff</t>
+  </si>
+  <si>
+    <t>F(1, 1) = 0.01 , 0.916</t>
+  </si>
+  <si>
+    <t>-0.6 ( -12.285 , 11.095 ), 0.916</t>
+  </si>
+  <si>
+    <t>6.76 ( -1.302 , 14.831 )</t>
+  </si>
+  <si>
+    <t>7.36 ( -1.101 , 15.82 )</t>
+  </si>
+  <si>
+    <t>General Health</t>
+  </si>
+  <si>
+    <t>F(1, 1) = 0.06 , 0.815</t>
+  </si>
+  <si>
+    <t>0.95 ( -2.115 , 4.017 )</t>
+  </si>
+  <si>
+    <t>1.45 ( -1.762 , 4.67 )</t>
+  </si>
+  <si>
+    <t>Emotional wellbeing</t>
+  </si>
+  <si>
+    <t>F(1, 1) = 0.39 , 0.539</t>
+  </si>
+  <si>
+    <t>3.26 ( -7.66 , 14.174 ), 0.539</t>
+  </si>
+  <si>
+    <t>4.26 ( -2.681 , 11.204 )</t>
+  </si>
+  <si>
+    <t>F(1, 1) = 0.55 , 0.467</t>
+  </si>
+  <si>
+    <t>1.94 ( -3.535 , 7.409 ), 0.467</t>
+  </si>
+  <si>
+    <t>5.68 ( 1.912 , 9.456 )</t>
+  </si>
+  <si>
+    <t>3.75 ( -0.209 , 7.704 )</t>
+  </si>
+  <si>
+    <t>F(1, 1) = 0.16 , 0.691</t>
+  </si>
+  <si>
+    <t>-2.22 ( -13.819 , 9.374 ), 0.691</t>
+  </si>
+  <si>
+    <t>-2.78 ( -10.026 , 4.47 )</t>
+  </si>
+  <si>
+    <t>-0.56 ( -10.702 , 9.591 )</t>
+  </si>
+  <si>
+    <t>Role emotional</t>
+  </si>
+  <si>
+    <t>-0.33 ( -16.1 , 15.436 ), 0.965</t>
+  </si>
+  <si>
+    <t>-5.17 ( -16.164 , 5.832 )</t>
+  </si>
+  <si>
+    <t>-4.83 ( -15.832 , 6.164 )</t>
+  </si>
+  <si>
+    <t>Role Physical</t>
+  </si>
+  <si>
+    <t>No change</t>
+  </si>
+  <si>
+    <t>1.00 ( -8.858 , 10.867 )</t>
+  </si>
+  <si>
+    <t>F(1, 1) = 0.00 , 0.965</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.50 ( -4.948 , 3.942 ), 0.815</t>
+  </si>
+  <si>
+    <t>Group 1 EMMEAN</t>
+  </si>
+  <si>
+    <t>Group 2 EMMEAN</t>
+  </si>
+  <si>
+    <t>F(1, 1) = 0.16 , 0.69</t>
+  </si>
+  <si>
+    <t>-5.9 ( -36.465 , 24.661 ), 0.69</t>
+  </si>
+  <si>
+    <t>9.09 ( -11.993 , 30.181 )</t>
+  </si>
+  <si>
+    <t>15 ( -7.12 , 37.113 )</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +226,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -119,7 +242,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -127,11 +250,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF111111"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF111111"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF111111"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -145,6 +288,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,9 +622,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:BS55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="AG57" sqref="AG57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:E45" si="0">AVERAGEIF(Y2:AB2,"&lt;&gt;")</f>
+        <f t="shared" ref="E2:E44" si="0">AVERAGEIF(Y2:AB2,"&lt;&gt;")</f>
         <v>100</v>
       </c>
       <c r="F2" s="3">
@@ -702,8 +861,8 @@
         <v>0</v>
       </c>
       <c r="J2" s="3">
-        <f>AVERAGEIF(BL2:BM2, "&lt;&gt;")</f>
-        <v>0</v>
+        <f>AVERAGEIF(AG2:AH2, "&lt;&gt;")</f>
+        <v>20</v>
       </c>
       <c r="K2" s="3">
         <f>AVERAGEIF(BO2:BS2, "&lt;&gt;")</f>
@@ -905,8 +1064,8 @@
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J45" si="6">AVERAGEIF(BL3:BM3, "&lt;&gt;")</f>
-        <v>0</v>
+        <f t="shared" ref="J3:J45" si="6">AVERAGEIF(AG3:AH3, "&lt;&gt;")</f>
+        <v>20</v>
       </c>
       <c r="K3" s="3">
         <f t="shared" ref="K3:K45" si="7">AVERAGEIF(BO3:BS3, "&lt;&gt;")</f>
@@ -1103,7 +1262,7 @@
       </c>
       <c r="J4" s="3">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" si="7"/>
@@ -1300,7 +1459,7 @@
       </c>
       <c r="J5" s="3">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="7"/>
@@ -1497,7 +1656,7 @@
       </c>
       <c r="J6" s="3">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="7"/>
@@ -1700,7 +1859,7 @@
       </c>
       <c r="J7" s="3">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="7"/>
@@ -1903,7 +2062,7 @@
       </c>
       <c r="J8" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="7"/>
@@ -2074,6 +2233,10 @@
       <c r="C9" s="3">
         <v>2</v>
       </c>
+      <c r="J9" s="3" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -2111,7 +2274,7 @@
       </c>
       <c r="J10" s="3">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="7"/>
@@ -2308,7 +2471,7 @@
       </c>
       <c r="J11" s="3">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="7"/>
@@ -2505,7 +2668,7 @@
       </c>
       <c r="J12" s="3">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="7"/>
@@ -2899,7 +3062,7 @@
       </c>
       <c r="J14" s="3">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="7"/>
@@ -3096,7 +3259,7 @@
       </c>
       <c r="J15" s="3">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="7"/>
@@ -3293,7 +3456,7 @@
       </c>
       <c r="J16" s="3">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="7"/>
@@ -3490,7 +3653,7 @@
       </c>
       <c r="J17" s="3">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="7"/>
@@ -3693,7 +3856,7 @@
       </c>
       <c r="J18" s="3">
         <f t="shared" si="6"/>
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="7"/>
@@ -3882,7 +4045,7 @@
       </c>
       <c r="J19" s="3">
         <f t="shared" si="6"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="7"/>
@@ -4058,7 +4221,7 @@
       </c>
       <c r="J20" s="3">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" si="7"/>
@@ -4207,7 +4370,7 @@
       </c>
       <c r="J21" s="3">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" si="7"/>
@@ -4356,7 +4519,7 @@
       </c>
       <c r="J22" s="3">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" si="7"/>
@@ -4559,7 +4722,7 @@
       </c>
       <c r="J23" s="3">
         <f t="shared" si="6"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" si="7"/>
@@ -4756,7 +4919,7 @@
       </c>
       <c r="J24" s="3">
         <f t="shared" si="6"/>
-        <v>37.5</v>
+        <v>10</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" si="7"/>
@@ -4959,7 +5122,7 @@
       </c>
       <c r="J25" s="3">
         <f t="shared" si="6"/>
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" si="7"/>
@@ -5162,7 +5325,7 @@
       </c>
       <c r="J26" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="7"/>
@@ -5365,7 +5528,7 @@
       </c>
       <c r="J27" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K27" s="3">
         <f t="shared" si="7"/>
@@ -5562,7 +5725,7 @@
       </c>
       <c r="J28" s="3">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" si="7"/>
@@ -5759,7 +5922,7 @@
       </c>
       <c r="J29" s="3">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K29" s="3">
         <f t="shared" si="7"/>
@@ -5956,7 +6119,7 @@
       </c>
       <c r="J30" s="3">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K30" s="3">
         <f t="shared" si="7"/>
@@ -6159,7 +6322,7 @@
       </c>
       <c r="J31" s="3">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K31" s="3">
         <f t="shared" si="7"/>
@@ -6362,7 +6525,7 @@
       </c>
       <c r="J32" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" si="7"/>
@@ -6559,7 +6722,7 @@
       </c>
       <c r="J33" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" si="7"/>
@@ -6756,7 +6919,7 @@
       </c>
       <c r="J34" s="3">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K34" s="3">
         <f t="shared" si="7"/>
@@ -7150,7 +7313,7 @@
       </c>
       <c r="J36" s="3">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K36" s="3">
         <f t="shared" si="7"/>
@@ -7347,7 +7510,7 @@
       </c>
       <c r="J37" s="3">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K37" s="3">
         <f t="shared" si="7"/>
@@ -7544,7 +7707,7 @@
       </c>
       <c r="J38" s="3">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K38" s="3">
         <f t="shared" si="7"/>
@@ -7741,7 +7904,7 @@
       </c>
       <c r="J39" s="3">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="K39" s="3">
         <f t="shared" si="7"/>
@@ -7944,7 +8107,7 @@
       </c>
       <c r="J40" s="3">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="K40" s="3">
         <f t="shared" si="7"/>
@@ -8141,7 +8304,7 @@
       </c>
       <c r="J41" s="3">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K41" s="3">
         <f t="shared" si="7"/>
@@ -8338,7 +8501,7 @@
       </c>
       <c r="J42" s="3">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K42" s="3">
         <f t="shared" si="7"/>
@@ -8487,7 +8650,7 @@
       </c>
       <c r="J43" s="3">
         <f t="shared" si="6"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="K43" s="3">
         <f t="shared" si="7"/>
@@ -8636,7 +8799,7 @@
       </c>
       <c r="J44" s="3">
         <f t="shared" si="6"/>
-        <v>37.5</v>
+        <v>10</v>
       </c>
       <c r="K44" s="3">
         <f t="shared" si="7"/>
@@ -8839,7 +9002,7 @@
       </c>
       <c r="J45" s="3">
         <f t="shared" si="6"/>
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <f t="shared" si="7"/>
@@ -9007,234 +9170,93 @@
       </c>
     </row>
     <row r="46" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="Y46" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB46" s="2">
-        <v>100</v>
-      </c>
-      <c r="AC46" s="2">
-        <v>100</v>
-      </c>
-      <c r="AD46" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE46" s="2">
-        <v>100</v>
-      </c>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
     </row>
     <row r="47" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="Y47" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB47" s="2">
-        <v>100</v>
-      </c>
-      <c r="AC47" s="2">
-        <v>100</v>
-      </c>
-      <c r="AD47" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE47" s="2">
-        <v>100</v>
-      </c>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
     </row>
     <row r="48" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="Y48" s="2">
-        <v>100</v>
-      </c>
-      <c r="Z48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AA48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AC48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AD48" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE48" s="2">
-        <v>100</v>
-      </c>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
     </row>
     <row r="49" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y49" s="2">
-        <v>100</v>
-      </c>
-      <c r="Z49" s="2">
-        <v>100</v>
-      </c>
-      <c r="AA49" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB49" s="2">
-        <v>100</v>
-      </c>
-      <c r="AC49" s="2">
-        <v>100</v>
-      </c>
-      <c r="AD49" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE49" s="2">
-        <v>100</v>
-      </c>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
     </row>
     <row r="50" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y50" s="2">
-        <v>100</v>
-      </c>
-      <c r="Z50" s="2">
-        <v>100</v>
-      </c>
-      <c r="AA50" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB50" s="2">
-        <v>100</v>
-      </c>
-      <c r="AC50" s="2">
-        <v>100</v>
-      </c>
-      <c r="AD50" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE50" s="2">
-        <v>100</v>
-      </c>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
     </row>
     <row r="51" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y51" s="2">
-        <v>100</v>
-      </c>
-      <c r="Z51" s="2">
-        <v>100</v>
-      </c>
-      <c r="AA51" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB51" s="2">
-        <v>100</v>
-      </c>
-      <c r="AC51" s="2">
-        <v>100</v>
-      </c>
-      <c r="AD51" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE51" s="2">
-        <v>100</v>
-      </c>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
     </row>
     <row r="52" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y52" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="2">
-        <v>100</v>
-      </c>
-      <c r="AA52" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB52" s="2">
-        <v>100</v>
-      </c>
-      <c r="AC52" s="2">
-        <v>100</v>
-      </c>
-      <c r="AD52" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE52" s="2">
-        <v>100</v>
-      </c>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
     </row>
     <row r="53" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y53" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="2">
-        <v>100</v>
-      </c>
-      <c r="AA53" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB53" s="2">
-        <v>100</v>
-      </c>
-      <c r="AC53" s="2">
-        <v>100</v>
-      </c>
-      <c r="AD53" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE53" s="2">
-        <v>100</v>
-      </c>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
     </row>
     <row r="54" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y54" s="2">
-        <v>100</v>
-      </c>
-      <c r="Z54" s="2">
-        <v>100</v>
-      </c>
-      <c r="AA54" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB54" s="2">
-        <v>100</v>
-      </c>
-      <c r="AC54">
-        <v>100</v>
-      </c>
-      <c r="AD54" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE54" s="2">
-        <v>100</v>
-      </c>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
     </row>
     <row r="55" spans="25:31" x14ac:dyDescent="0.25">
-      <c r="Y55" s="2">
-        <v>100</v>
-      </c>
-      <c r="Z55" s="2">
-        <v>100</v>
-      </c>
-      <c r="AA55" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB55" s="2">
-        <v>100</v>
-      </c>
-      <c r="AC55" s="2">
-        <v>100</v>
-      </c>
-      <c r="AD55" s="2">
-        <v>100</v>
-      </c>
-      <c r="AE55" s="2">
-        <v>100</v>
-      </c>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AV1" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -9250,6 +9272,186 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261BD20F-61D5-4DDA-AF95-0749F0590D43}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8"/>
+      <c r="B2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AM45"/>
   <sheetViews>
